--- a/Câu hỏi Cơ sở dữ liệu.xlsx
+++ b/Câu hỏi Cơ sở dữ liệu.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>Câu hỏi</t>
   </si>
@@ -196,6 +196,36 @@
   </si>
   <si>
     <t>Primary Key</t>
+  </si>
+  <si>
+    <t>Khẳng định nào sau đây về CSDL quan hệ là đúng?</t>
+  </si>
+  <si>
+    <t>Tập hợp các bảng dữ liệu</t>
+  </si>
+  <si>
+    <t>Cơ sở dữ liệu được tạo ra từ hệ QTCSDL Access</t>
+  </si>
+  <si>
+    <t>Cơ sở dữ liệu mà giữa các dữ liệu có quan hệ với nhau</t>
+  </si>
+  <si>
+    <t>Cơ sở dữ liệu được xây dựng trên mô hình dữ liệu quan hệ</t>
+  </si>
+  <si>
+    <t>Đâu là câu lệnh điều kiện trong truy vấn CSDL?</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>Where</t>
+  </si>
+  <si>
+    <t>Having</t>
+  </si>
+  <si>
+    <t>Like</t>
   </si>
 </sst>
 </file>
@@ -557,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -792,18 +822,44 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
